--- a/public/uploads/Onboarding.xlsx
+++ b/public/uploads/Onboarding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ClassSection" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t xml:space="preserve">Classes</t>
   </si>
@@ -73,43 +73,10 @@
     <t xml:space="preserve">Section</t>
   </si>
   <si>
-    <t xml:space="preserve">Prakash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teaching Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C,A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Designation</t>
   </si>
   <si>
     <t xml:space="preserve">Deciding Authority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Student Name</t>
@@ -146,15 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">Guardian Parent Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student name 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother 1</t>
   </si>
 </sst>
 </file>
@@ -309,8 +267,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="2:2 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,10 +333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1002"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,51 +405,11 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1231231231</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>44961</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>32908</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="5"/>
@@ -6493,15 +6411,9 @@
       <c r="G1001" s="8"/>
       <c r="H1001" s="8"/>
     </row>
-    <row r="1002" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="8"/>
-      <c r="H1002" s="8"/>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="equal" prompt="Teaching&#10;Non-Teaching" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D8:D1002" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="Teaching&#10;Non-Teaching" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D8:D1001" type="list">
       <formula1>"Teaching,Non-Teaching"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6509,11 +6421,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="&#10;" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="G1:H1002" type="none">
+    <dataValidation allowBlank="true" operator="equal" prompt="&#10;" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="G1:H1001" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="lessThanOrEqual" prompt="&#10;" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="E1:F1002" type="none">
+    <dataValidation allowBlank="false" operator="lessThanOrEqual" prompt="&#10;" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="E1:F1001" type="none">
       <formula1>30/12/1899</formula1>
       <formula2>30/12/1899</formula2>
     </dataValidation>
@@ -6537,10 +6449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6564,24 +6476,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>9089782776</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6600,10 +6498,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6623,13 +6521,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
@@ -6638,54 +6536,31 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>9363584018</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>9363584018</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
